--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramos\lo\proyecto\back\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296ECBC0-7888-47B8-A942-2CCC58DBE5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F6F7B9-B730-46E7-99DA-2A3BA1715533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>marca_temporal</t>
   </si>
@@ -116,6 +116,15 @@
     <t>quien_aprobo</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>cursoMateria</t>
+  </si>
+  <si>
     <t>materia</t>
   </si>
   <si>
@@ -125,7 +134,13 @@
     <t>estado</t>
   </si>
   <si>
-    <t>cursoMateria</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
   </si>
 </sst>
 </file>
@@ -161,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE49"/>
+  <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,41 +634,9 @@
     <row r="12" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -663,11 +647,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -682,39 +664,45 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="15.6" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/proyecto/back/excel/archivo.xlsx
+++ b/proyecto/back/excel/archivo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramos\lo\proyecto\back\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F6F7B9-B730-46E7-99DA-2A3BA1715533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54532472-1C3E-4354-868B-FCC2387BD1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
-  <si>
-    <t>marca_temporal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>foto</t>
   </si>
@@ -107,31 +104,22 @@
     <t>cod_postal</t>
   </si>
   <si>
-    <t>materias_adeuda</t>
-  </si>
-  <si>
-    <t>adeuda_materias</t>
-  </si>
-  <si>
-    <t>quien_aprobo</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>cursoMateria</t>
+  </si>
+  <si>
+    <t>materia</t>
+  </si>
+  <si>
+    <t>nota</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
     <t>47</t>
-  </si>
-  <si>
-    <t>cursoMateria</t>
-  </si>
-  <si>
-    <t>materia</t>
-  </si>
-  <si>
-    <t>nota</t>
-  </si>
-  <si>
-    <t>estado</t>
   </si>
   <si>
     <t>3</t>
@@ -176,9 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE15"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,39 +595,11 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:31" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AE1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AA1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -655,25 +614,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -681,22 +640,22 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
